--- a/config_3.23/by3dphb_config.xlsx
+++ b/config_3.23/by3dphb_config.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>id</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>BY3DPHBRightItemBase_yjb</t>
-  </si>
-  <si>
-    <t>海怪榜</t>
   </si>
   <si>
     <t>BY3DPHBRightPanel_hgb</t>
@@ -97,15 +94,27 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>消消乐闯关</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>BY3DPHBRightPanel_sgxxlb</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>BY3DPHBRightItemBase_sgxxlb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>海怪榜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>闯关榜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpl_cjj</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpl_notcjj</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -444,7 +453,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -500,19 +509,22 @@
       <c r="F2">
         <v>1</v>
       </c>
+      <c r="G2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -526,19 +538,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
         <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
@@ -546,13 +561,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -566,13 +581,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>19</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -586,13 +601,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
         <v>21</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>22</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
       </c>
       <c r="E7">
         <v>6</v>
@@ -606,23 +621,27 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
         <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>27</v>
       </c>
       <c r="E8">
         <v>7</v>
       </c>
       <c r="F8">
         <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>